--- a/biology/Botanique/Ingeae/Ingeae.xlsx
+++ b/biology/Botanique/Ingeae/Ingeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ingeae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire des régions tropicales et subtropicales du monde, qui comprend 36 genres et environ 1000 espèces[1].
-Le genre-type est Inga[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ingeae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire des régions tropicales et subtropicales du monde, qui comprend 36 genres et environ 1000 espèces.
+Le genre-type est Inga.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 juillet 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 juillet 2018) :
 Abarema Pittier, 1927
 Afrocalliandra E.R.Souza &amp; L.P.Queiroz, 2013
 Albizia Durazz., 1772
@@ -543,7 +557,7 @@
 Paraserianthes I.C.Nielsen
 Pithecellobium Mart.
 Pseudosamanea
-Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza 2022[4]
+Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza 2022
 Samanea (Benth.) Merr.
 Serianthes Benth., 1844
 Sphinga Barneby &amp; J.W.Grimes, 1996
